--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\TP FINAL IP\wordix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\repo\wordix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666376FA-B9FB-4FF3-A2D1-860BB8ACF0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="195" windowWidth="12405" windowHeight="11385" xr2:uid="{66969CD6-0866-4206-890B-CB2413C257D1}"/>
+    <workbookView xWindow="-15" yWindow="195" windowWidth="12405" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -357,19 +356,19 @@
     <t>Vega</t>
   </si>
   <si>
-    <t>Lucas J.</t>
-  </si>
-  <si>
     <t>FAI-3940</t>
   </si>
   <si>
     <t>lucas.vega@est.fi.uncoma.edu.ar</t>
+  </si>
+  <si>
+    <t>Lucas Javier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,39 +549,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -590,8 +556,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -907,11 +906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2D4253-F35D-4620-A113-A4975015559D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,133 +924,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="17"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="17"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1062,11 +1061,11 @@
       <c r="F9" s="3"/>
     </row>
     <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="7">
         <v>0</v>
       </c>
@@ -1197,29 +1196,29 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1227,10 +1226,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
         <v>0</v>
@@ -1412,29 +1411,29 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1442,10 +1441,10 @@
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="25"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="13" t="s">
         <v>49</v>
       </c>
@@ -1524,131 +1523,131 @@
       <c r="AB33" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AC33" s="27" t="s">
+      <c r="AC33" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="C34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="L34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="M34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="N34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="O34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="P34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="R34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="S34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="T34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="U34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="V34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="W34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="X34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA34" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB34" s="26" t="s">
+      <c r="C34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="V34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="W34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="X34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB34" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="12">
         <v>1</v>
       </c>
@@ -1736,14 +1735,14 @@
       <c r="AE42" s="12">
         <v>30</v>
       </c>
-      <c r="AF42" s="29" t="s">
+      <c r="AF42" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="AG42" s="28"/>
-      <c r="AH42" s="28"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28"/>
-      <c r="AK42" s="28"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="17"/>
+      <c r="AI42" s="17"/>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C43" s="8" t="s">
@@ -1835,158 +1834,122 @@
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15" t="s">
+      <c r="D51" s="22"/>
+      <c r="E51" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15" t="s">
+      <c r="H51" s="22"/>
+      <c r="I51" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="27" t="s">
+      <c r="J51" s="22"/>
+      <c r="K51" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31" t="s">
+      <c r="D52" s="23"/>
+      <c r="E52" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31" t="s">
+      <c r="F52" s="23"/>
+      <c r="G52" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31" t="s">
+      <c r="H52" s="23"/>
+      <c r="I52" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="J52" s="31"/>
+      <c r="J52" s="23"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A27:C27"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -1999,12 +1962,48 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" xr:uid="{968EE0DE-DC8A-4133-9BC3-172AEB9C4B49}"/>
-    <hyperlink ref="G5" r:id="rId2" xr:uid="{143978A8-76E2-423A-85E6-21EE411A486A}"/>
-    <hyperlink ref="G6" r:id="rId3" xr:uid="{B14A2619-A030-444C-831E-A3F4C4E78FD0}"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\repo\wordix\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-15" yWindow="195" windowWidth="12405" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="138">
   <si>
     <t>INTEGRANTES DEL GRUPO 6</t>
   </si>
@@ -59,9 +54,6 @@
     <t>nickocaretta@gmail.com</t>
   </si>
   <si>
-    <t>Nico9020</t>
-  </si>
-  <si>
     <t>Chuichuy</t>
   </si>
   <si>
@@ -363,13 +355,91 @@
   </si>
   <si>
     <t>Lucas Javier</t>
+  </si>
+  <si>
+    <t>$adivinadas</t>
+  </si>
+  <si>
+    <t>intento 1'</t>
+  </si>
+  <si>
+    <t>intento 2'</t>
+  </si>
+  <si>
+    <t>intento 3'</t>
+  </si>
+  <si>
+    <t>intento 4'</t>
+  </si>
+  <si>
+    <t>intento 5'</t>
+  </si>
+  <si>
+    <t>intento 6'</t>
+  </si>
+  <si>
+    <t>Tipo de Datos: Almacena valores numericos.</t>
+  </si>
+  <si>
+    <t>¿Para que se utiliza?: Se utiliza para guardar la cantidad de palabras adivinadas en cada intento</t>
+  </si>
+  <si>
+    <t>Informacion estructura:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo: Indexado </t>
+  </si>
+  <si>
+    <t>Tipo de dato: Almacena Strings.</t>
+  </si>
+  <si>
+    <t>¿Para que se utiliza?: Se utiliza para guardar las vocales.</t>
+  </si>
+  <si>
+    <t>$consonantesAntesDeM</t>
+  </si>
+  <si>
+    <t>$vocales</t>
+  </si>
+  <si>
+    <t>¿Para que se utiliza?: Se utiliza para guardar las consonantes antes de M.</t>
+  </si>
+  <si>
+    <t>$consonantesDespuesDeM</t>
+  </si>
+  <si>
+    <t>$arregloIntentosWordix</t>
+  </si>
+  <si>
+    <t>Información estructura:</t>
+  </si>
+  <si>
+    <t>Tipo: Indexado</t>
+  </si>
+  <si>
+    <t>Tipo de dato: Almacena integer</t>
+  </si>
+  <si>
+    <t>¿Para que se utiliza?: Se utiliza para guardar el numero de intentos de la partida actual</t>
+  </si>
+  <si>
+    <t>$palabra</t>
+  </si>
+  <si>
+    <t>Tipo de dato: Almacena String</t>
+  </si>
+  <si>
+    <t>¿Para que se utiliza?: Se utiliza para guardar cada letrade una palabra</t>
+  </si>
+  <si>
+    <t>Nico9220</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +535,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -474,7 +551,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -508,12 +585,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -556,12 +659,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,21 +701,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -594,7 +721,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -899,7 +1026,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -907,13 +1034,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK57"/>
+  <dimension ref="A1:AK110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
@@ -924,133 +1051,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
       <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="36"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
       <c r="J4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="36"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="31" t="s">
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="27"/>
+      <c r="L6" s="36"/>
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="A8" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1061,11 +1188,11 @@
       <c r="F9" s="3"/>
     </row>
     <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="7">
         <v>0</v>
       </c>
@@ -1127,109 +1254,109 @@
         <v>19</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="I12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="N12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="P12" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O12" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="8" t="s">
+      <c r="T12" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="U12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="V12" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="U12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V12" s="8" t="s">
+      <c r="W12" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="W12" s="8" t="s">
-        <v>108</v>
-      </c>
       <c r="X12" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="26"/>
+      <c r="A20" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="34"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
         <v>0</v>
@@ -1262,82 +1389,82 @@
         <v>9</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C21" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="J21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="K21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="8" t="s">
+      <c r="M21" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C22" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="H22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="8" t="s">
+      <c r="L22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="M22" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -1372,7 +1499,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -1407,247 +1534,247 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C25" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="A29" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="G33" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="I33" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="J33" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J33" s="13" t="s">
+      <c r="K33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="L33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L33" s="13" t="s">
+      <c r="M33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="N33" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="O33" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="P33" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P33" s="13" t="s">
+      <c r="Q33" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q33" s="13" t="s">
+      <c r="R33" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="R33" s="13" t="s">
+      <c r="S33" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="S33" s="13" t="s">
+      <c r="T33" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="T33" s="13" t="s">
+      <c r="U33" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="U33" s="13" t="s">
+      <c r="V33" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="V33" s="13" t="s">
+      <c r="W33" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="W33" s="13" t="s">
+      <c r="X33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="X33" s="13" t="s">
+      <c r="Y33" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="Y33" s="13" t="s">
+      <c r="Z33" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Z33" s="13" t="s">
+      <c r="AA33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AA33" s="13" t="s">
+      <c r="AB33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AB33" s="13" t="s">
-        <v>74</v>
-      </c>
       <c r="AC33" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="U34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="V34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="X34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA34" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB34" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="L34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="M34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="P34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="R34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="S34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="T34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="U34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="V34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="W34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="X34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA34" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB34" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="24"/>
+      <c r="A42" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="33"/>
       <c r="C42" s="12">
         <v>1</v>
       </c>
@@ -1736,7 +1863,7 @@
         <v>30</v>
       </c>
       <c r="AF42" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AG42" s="17"/>
       <c r="AH42" s="17"/>
@@ -1746,210 +1873,724 @@
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C43" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="X43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y43" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" s="8" t="s">
+      <c r="Z43" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA43" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="P43" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q43" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="R43" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="S43" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="T43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="U43" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="V43" s="8" t="s">
+      <c r="AB43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC43" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD43" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="W43" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="X43" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y43" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA43" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB43" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC43" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AD43" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="AE43" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
+      <c r="B51" s="33"/>
+      <c r="C51" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="31"/>
+      <c r="K51" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C52" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" s="22"/>
-      <c r="K51" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="23" t="s">
+      <c r="D52" s="32"/>
+      <c r="E52" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23" t="s">
+      <c r="F52" s="32"/>
+      <c r="G52" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23" t="s">
+      <c r="H52" s="32"/>
+      <c r="I52" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23" t="s">
+      <c r="J52" s="32"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="J52" s="23"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>94</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="23"/>
+      <c r="C60" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" s="23"/>
+      <c r="I60" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J60" s="23"/>
+      <c r="K60" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L60" s="23"/>
+      <c r="M60" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="N60" s="23"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C61" s="28">
+        <v>0</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="28">
+        <v>0</v>
+      </c>
+      <c r="F61" s="29"/>
+      <c r="G61" s="28">
+        <v>0</v>
+      </c>
+      <c r="H61" s="29"/>
+      <c r="I61" s="28">
+        <v>0</v>
+      </c>
+      <c r="J61" s="29"/>
+      <c r="K61" s="28">
+        <v>0</v>
+      </c>
+      <c r="L61" s="29"/>
+      <c r="M61" s="28">
+        <v>0</v>
+      </c>
+      <c r="N61" s="29"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="23"/>
+      <c r="C68" s="21">
+        <v>0</v>
+      </c>
+      <c r="D68" s="21">
+        <v>1</v>
+      </c>
+      <c r="E68" s="21">
+        <v>2</v>
+      </c>
+      <c r="F68" s="21">
+        <v>3</v>
+      </c>
+      <c r="G68" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C69" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="23"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="23"/>
+      <c r="C77" s="21">
+        <v>0</v>
+      </c>
+      <c r="D77" s="21">
+        <v>1</v>
+      </c>
+      <c r="E77" s="21">
+        <v>2</v>
+      </c>
+      <c r="F77" s="21">
+        <v>3</v>
+      </c>
+      <c r="G77" s="21">
+        <v>4</v>
+      </c>
+      <c r="H77" s="21">
+        <v>5</v>
+      </c>
+      <c r="I77" s="21">
+        <v>6</v>
+      </c>
+      <c r="J77" s="21">
+        <v>7</v>
+      </c>
+      <c r="K77" s="21">
+        <v>8</v>
+      </c>
+      <c r="L77" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C78" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K78" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="L78" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="23"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="23"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="23"/>
+      <c r="C86" s="21">
+        <v>0</v>
+      </c>
+      <c r="D86" s="21">
+        <v>1</v>
+      </c>
+      <c r="E86" s="21">
+        <v>2</v>
+      </c>
+      <c r="F86" s="21">
+        <v>3</v>
+      </c>
+      <c r="G86" s="21">
+        <v>4</v>
+      </c>
+      <c r="H86" s="21">
+        <v>5</v>
+      </c>
+      <c r="I86" s="21">
+        <v>6</v>
+      </c>
+      <c r="J86" s="21">
+        <v>7</v>
+      </c>
+      <c r="K86" s="21">
+        <v>8</v>
+      </c>
+      <c r="L86" s="21">
+        <v>9</v>
+      </c>
+      <c r="M86" s="21">
+        <v>10</v>
+      </c>
+      <c r="N86" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C87" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I87" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J87" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="K87" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="L87" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="M87" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N87" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="23"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="23"/>
+      <c r="C90" s="23"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="23"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" s="23"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="23"/>
+      <c r="C95" s="21">
+        <v>0</v>
+      </c>
+      <c r="D95" s="21">
+        <v>1</v>
+      </c>
+      <c r="E95" s="21">
+        <v>2</v>
+      </c>
+      <c r="F95" s="21">
+        <v>3</v>
+      </c>
+      <c r="G95" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C96" s="15">
+        <v>0</v>
+      </c>
+      <c r="D96" s="15">
+        <v>1</v>
+      </c>
+      <c r="E96" s="15">
+        <v>2</v>
+      </c>
+      <c r="F96" s="15">
+        <v>3</v>
+      </c>
+      <c r="G96" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B98" s="23"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="23"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="19"/>
+      <c r="F101" s="19"/>
+      <c r="H101" s="15"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="23"/>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C105" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E105" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F105" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" s="23"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="23"/>
+      <c r="C108" s="23"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" s="23"/>
+      <c r="C109" s="23"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" s="23"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="23"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="88">
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -1998,6 +2639,46 @@
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
@@ -2006,5 +2687,6 @@
     <hyperlink ref="G6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="152">
   <si>
     <t>INTEGRANTES DEL GRUPO 6</t>
   </si>
@@ -267,9 +267,6 @@
     <t>$coleccionPalabras =</t>
   </si>
   <si>
-    <t>$cargarPartidas =</t>
-  </si>
-  <si>
     <t xml:space="preserve">$teclado = </t>
   </si>
   <si>
@@ -433,6 +430,51 @@
   </si>
   <si>
     <t>Nico9220</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas =</t>
+  </si>
+  <si>
+    <t>//clave</t>
+  </si>
+  <si>
+    <t>//valor</t>
+  </si>
+  <si>
+    <t>palabraWordix'</t>
+  </si>
+  <si>
+    <t>jugador'</t>
+  </si>
+  <si>
+    <t>intentos'</t>
+  </si>
+  <si>
+    <t>puntaje'</t>
+  </si>
+  <si>
+    <t>$estructuraDePalabraIntentos =</t>
+  </si>
+  <si>
+    <t>letra'</t>
+  </si>
+  <si>
+    <t>$letraIntento</t>
+  </si>
+  <si>
+    <t>estado'</t>
+  </si>
+  <si>
+    <t>Tipo de dato: Almacena string</t>
+  </si>
+  <si>
+    <t>Información de estructura:</t>
+  </si>
+  <si>
+    <t>¿Para que se utiliza?: Se utiliza para guardar el estado de la letra y la letra utilizada en el numero de intento.</t>
+  </si>
+  <si>
+    <t>$estado</t>
   </si>
 </sst>
 </file>
@@ -551,7 +593,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -611,12 +653,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -662,27 +713,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,33 +767,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1026,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1034,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK110"/>
+  <dimension ref="A1:AK118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,133 +1116,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="36"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="36"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" s="36"/>
+      <c r="K4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="36"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="5"/>
       <c r="N6" s="6"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -1188,11 +1253,11 @@
       <c r="F9" s="3"/>
     </row>
     <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="7">
         <v>0</v>
       </c>
@@ -1259,7 +1324,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D12" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>29</v>
@@ -1271,81 +1336,81 @@
         <v>30</v>
       </c>
       <c r="H12" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>96</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="N12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="Q12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="R12" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="R12" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="V12" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="W12" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="W12" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="X12" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1353,10 +1418,10 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="34"/>
+      <c r="A20" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="32"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12">
         <v>0</v>
@@ -1538,29 +1603,29 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1568,10 +1633,10 @@
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="33"/>
+      <c r="A33" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="29"/>
       <c r="C33" s="13" t="s">
         <v>48</v>
       </c>
@@ -1735,46 +1800,46 @@
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="33"/>
+      <c r="A42" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="29"/>
       <c r="C42" s="12">
         <v>1</v>
       </c>
@@ -1961,206 +2026,212 @@
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="31"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="33"/>
+      <c r="G51" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" s="33"/>
+      <c r="I51" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" s="33"/>
       <c r="K51" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C52" s="32" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C52" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32" t="s">
+      <c r="F52" s="34"/>
+      <c r="G52" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32" t="s">
+      <c r="H52" s="34"/>
+      <c r="I52" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32" t="s">
+      <c r="J52" s="34"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="J52" s="32"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="30" t="s">
+      <c r="D60" s="27"/>
+      <c r="E60" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="30" t="s">
+      <c r="F60" s="27"/>
+      <c r="G60" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="30" t="s">
+      <c r="H60" s="27"/>
+      <c r="I60" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="27" t="s">
+      <c r="J60" s="43"/>
+      <c r="K60" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="J60" s="23"/>
-      <c r="K60" s="27" t="s">
+      <c r="L60" s="40"/>
+      <c r="M60" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="L60" s="23"/>
-      <c r="M60" s="27" t="s">
+      <c r="N60" s="40"/>
+      <c r="O60" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C61" s="36">
+        <v>0</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="36">
+        <v>0</v>
+      </c>
+      <c r="F61" s="37"/>
+      <c r="G61" s="36">
+        <v>0</v>
+      </c>
+      <c r="H61" s="37"/>
+      <c r="I61" s="36">
+        <v>0</v>
+      </c>
+      <c r="J61" s="37"/>
+      <c r="K61" s="36">
+        <v>0</v>
+      </c>
+      <c r="L61" s="37"/>
+      <c r="M61" s="36">
+        <v>0</v>
+      </c>
+      <c r="N61" s="37"/>
+      <c r="O61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="N60" s="23"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C61" s="28">
-        <v>0</v>
-      </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="28">
-        <v>0</v>
-      </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="28">
-        <v>0</v>
-      </c>
-      <c r="H61" s="29"/>
-      <c r="I61" s="28">
-        <v>0</v>
-      </c>
-      <c r="J61" s="29"/>
-      <c r="K61" s="28">
-        <v>0</v>
-      </c>
-      <c r="L61" s="29"/>
-      <c r="M61" s="28">
-        <v>0</v>
-      </c>
-      <c r="N61" s="29"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -2170,23 +2241,23 @@
       <c r="G65" s="19"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="21">
+      <c r="A68" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="39">
         <v>0</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="39">
         <v>1</v>
       </c>
-      <c r="E68" s="21">
+      <c r="E68" s="39">
         <v>2</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="39">
         <v>3</v>
       </c>
-      <c r="G68" s="21">
+      <c r="G68" s="39">
         <v>4</v>
       </c>
     </row>
@@ -2208,70 +2279,70 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="27"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="23"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="21">
+      <c r="B77" s="27"/>
+      <c r="C77" s="39">
         <v>0</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D77" s="39">
         <v>1</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E77" s="39">
         <v>2</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="39">
         <v>3</v>
       </c>
-      <c r="G77" s="21">
+      <c r="G77" s="39">
         <v>4</v>
       </c>
-      <c r="H77" s="21">
+      <c r="H77" s="39">
         <v>5</v>
       </c>
-      <c r="I77" s="21">
+      <c r="I77" s="39">
         <v>6</v>
       </c>
-      <c r="J77" s="21">
+      <c r="J77" s="39">
         <v>7</v>
       </c>
-      <c r="K77" s="21">
+      <c r="K77" s="39">
         <v>8</v>
       </c>
-      <c r="L77" s="21">
+      <c r="L77" s="39">
         <v>9</v>
       </c>
     </row>
@@ -2291,93 +2362,93 @@
       <c r="G78" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="H78" s="22" t="s">
+      <c r="H78" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I78" s="22" t="s">
+      <c r="I78" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="J78" s="22" t="s">
+      <c r="J78" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="K78" s="22" t="s">
+      <c r="K78" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="L78" s="22" t="s">
+      <c r="L78" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="27"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B80" s="23"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="23"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="21">
+      <c r="B86" s="27"/>
+      <c r="C86" s="39">
         <v>0</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D86" s="39">
         <v>1</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E86" s="39">
         <v>2</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="39">
         <v>3</v>
       </c>
-      <c r="G86" s="21">
+      <c r="G86" s="39">
         <v>4</v>
       </c>
-      <c r="H86" s="21">
+      <c r="H86" s="39">
         <v>5</v>
       </c>
-      <c r="I86" s="21">
+      <c r="I86" s="39">
         <v>6</v>
       </c>
-      <c r="J86" s="21">
+      <c r="J86" s="39">
         <v>7</v>
       </c>
-      <c r="K86" s="21">
+      <c r="K86" s="39">
         <v>8</v>
       </c>
-      <c r="L86" s="21">
+      <c r="L86" s="39">
         <v>9</v>
       </c>
-      <c r="M86" s="21">
+      <c r="M86" s="39">
         <v>10</v>
       </c>
-      <c r="N86" s="21">
+      <c r="N86" s="39">
         <v>11</v>
       </c>
     </row>
@@ -2397,79 +2468,82 @@
       <c r="G87" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H87" s="22" t="s">
+      <c r="H87" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I87" s="22" t="s">
+      <c r="I87" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="J87" s="22" t="s">
+      <c r="J87" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="K87" s="22" t="s">
+      <c r="K87" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="L87" s="22" t="s">
+      <c r="L87" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="M87" s="22" t="s">
+      <c r="M87" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="N87" s="22" t="s">
+      <c r="N87" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B89" s="27"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="23"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
+      <c r="A92" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="21">
+      <c r="A95" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="27"/>
+      <c r="C95" s="39">
         <v>0</v>
       </c>
-      <c r="D95" s="21">
+      <c r="D95" s="39">
         <v>1</v>
       </c>
-      <c r="E95" s="21">
+      <c r="E95" s="39">
         <v>2</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="39">
         <v>3</v>
       </c>
-      <c r="G95" s="21">
+      <c r="G95" s="39">
         <v>4</v>
+      </c>
+      <c r="H95" s="39">
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -2488,30 +2562,33 @@
       <c r="G96" s="15">
         <v>4</v>
       </c>
+      <c r="H96" s="44">
+        <v>5</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="27"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B98" s="23"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="23" t="s">
+      <c r="B99" s="27"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="23"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -2521,23 +2598,23 @@
       <c r="H101" s="15"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="B104" s="23"/>
-      <c r="C104">
+      <c r="A104" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="27"/>
+      <c r="C104" s="39">
         <v>0</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="39">
         <v>1</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="39">
         <v>2</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="39">
         <v>3</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="39">
         <v>4</v>
       </c>
     </row>
@@ -2559,86 +2636,117 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B107" s="27"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B107" s="23"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="27"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" s="27"/>
+      <c r="C109" s="27"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B113" s="27"/>
+      <c r="C113" s="27"/>
+      <c r="E113" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F113" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E114" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B115" s="27"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" s="27"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
+  <mergeCells count="90">
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:G83"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:G74"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="A63:E63"/>
     <mergeCell ref="A64:G64"/>
@@ -2655,30 +2763,52 @@
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="I60:J60"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A74:G74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:G83"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
